--- a/small_data/assemb_stat_diff_summs.xlsx
+++ b/small_data/assemb_stat_diff_summs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
   <si>
     <t>stat</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>do_n</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>evenness</t>
   </si>
 </sst>
 </file>
@@ -408,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -838,28 +844,28 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-0.15597403519502</v>
+        <v>-0.171860605185268</v>
       </c>
       <c r="D14">
-        <v>-1.46803922685502</v>
+        <v>-1.49199855699856</v>
       </c>
       <c r="E14">
-        <v>-1.24285714285714</v>
+        <v>-1.26111111111111</v>
       </c>
       <c r="F14">
-        <v>-0.910094439873852</v>
+        <v>-0.930555555555555</v>
       </c>
       <c r="G14">
-        <v>-0.153186274509804</v>
+        <v>-0.167452868768659</v>
       </c>
       <c r="H14">
-        <v>0.595867153679654</v>
+        <v>0.576709100475548</v>
       </c>
       <c r="I14">
-        <v>0.913010739260739</v>
+        <v>0.919191919191919</v>
       </c>
       <c r="J14">
-        <v>1.12929487179487</v>
+        <v>1.13856263018028</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -870,28 +876,28 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>0.0819926744547725</v>
+        <v>0.07614802577937</v>
       </c>
       <c r="D15">
-        <v>-1.13920634920635</v>
+        <v>-1.15556623931624</v>
       </c>
       <c r="E15">
-        <v>-0.941566766566767</v>
+        <v>-0.943616452991453</v>
       </c>
       <c r="F15">
-        <v>-0.634189421689422</v>
+        <v>-0.634256329970339</v>
       </c>
       <c r="G15">
-        <v>0.0807581307581304</v>
+        <v>0.0776515151515147</v>
       </c>
       <c r="H15">
-        <v>0.800923208735709</v>
+        <v>0.788888888888889</v>
       </c>
       <c r="I15">
-        <v>1.11432726587138</v>
+        <v>1.1</v>
       </c>
       <c r="J15">
-        <v>1.32468344155844</v>
+        <v>1.31425595238095</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -902,28 +908,28 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.179798781777004</v>
+        <v>0.184027217137055</v>
       </c>
       <c r="D16">
-        <v>-0.975</v>
+        <v>-0.957167832167833</v>
       </c>
       <c r="E16">
-        <v>-0.775902300314066</v>
+        <v>-0.76010878010878</v>
       </c>
       <c r="F16">
-        <v>-0.484598387723388</v>
+        <v>-0.472260378510379</v>
       </c>
       <c r="G16">
-        <v>0.176767676767676</v>
+        <v>0.184036796536796</v>
       </c>
       <c r="H16">
-        <v>0.839285714285714</v>
+        <v>0.839847999222999</v>
       </c>
       <c r="I16">
-        <v>1.13888888888889</v>
+        <v>1.13056623931624</v>
       </c>
       <c r="J16">
-        <v>1.33121843434343</v>
+        <v>1.31968253968254</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -934,28 +940,28 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>0.0906753453651504</v>
+        <v>0.0965194711419455</v>
       </c>
       <c r="D17">
-        <v>-0.969841824841825</v>
+        <v>-0.95659632034632</v>
       </c>
       <c r="E17">
-        <v>-0.789148629148629</v>
+        <v>-0.783333333333333</v>
       </c>
       <c r="F17">
-        <v>-0.519191919191918</v>
+        <v>-0.513888888888889</v>
       </c>
       <c r="G17">
-        <v>0.0864510489510493</v>
+        <v>0.0943181818181813</v>
       </c>
       <c r="H17">
-        <v>0.700923831070889</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="I17">
-        <v>0.984126984126984</v>
+        <v>0.988118131868132</v>
       </c>
       <c r="J17">
-        <v>1.17095238095238</v>
+        <v>1.16666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1340,6 +1346,262 @@
       </c>
       <c r="J29">
         <v>3014.97997046524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>0.136905941718429</v>
+      </c>
+      <c r="D30">
+        <v>-0.877157082133467</v>
+      </c>
+      <c r="E30">
+        <v>-0.679357753285874</v>
+      </c>
+      <c r="F30">
+        <v>-0.417433437490456</v>
+      </c>
+      <c r="G30">
+        <v>0.134806138262599</v>
+      </c>
+      <c r="H30">
+        <v>0.695155385748541</v>
+      </c>
+      <c r="I30">
+        <v>0.970090686883757</v>
+      </c>
+      <c r="J30">
+        <v>1.15122711994181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>0.209389729750557</v>
+      </c>
+      <c r="D31">
+        <v>-1.39836503901498</v>
+      </c>
+      <c r="E31">
+        <v>-1.13900911397382</v>
+      </c>
+      <c r="F31">
+        <v>-0.689664005847357</v>
+      </c>
+      <c r="G31">
+        <v>0.238987147410868</v>
+      </c>
+      <c r="H31">
+        <v>1.07502367983878</v>
+      </c>
+      <c r="I31">
+        <v>1.43259478445806</v>
+      </c>
+      <c r="J31">
+        <v>1.66488497305958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>0.0747791752508714</v>
+      </c>
+      <c r="D32">
+        <v>-0.651083385391254</v>
+      </c>
+      <c r="E32">
+        <v>-0.509216983999388</v>
+      </c>
+      <c r="F32">
+        <v>-0.309122863178347</v>
+      </c>
+      <c r="G32">
+        <v>0.0782145385375618</v>
+      </c>
+      <c r="H32">
+        <v>0.458353477620899</v>
+      </c>
+      <c r="I32">
+        <v>0.642513776366901</v>
+      </c>
+      <c r="J32">
+        <v>0.75494011079895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>0.21381851283941</v>
+      </c>
+      <c r="D33">
+        <v>-0.606764635863612</v>
+      </c>
+      <c r="E33">
+        <v>-0.462590953775841</v>
+      </c>
+      <c r="F33">
+        <v>-0.249099592098478</v>
+      </c>
+      <c r="G33">
+        <v>0.210659096744519</v>
+      </c>
+      <c r="H33">
+        <v>0.679324572857181</v>
+      </c>
+      <c r="I33">
+        <v>0.911600400215572</v>
+      </c>
+      <c r="J33">
+        <v>1.05314494459591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.068168428638832</v>
+      </c>
+      <c r="D34">
+        <v>-0.229746070818917</v>
+      </c>
+      <c r="E34">
+        <v>-0.173152807278014</v>
+      </c>
+      <c r="F34">
+        <v>-0.0921183519318571</v>
+      </c>
+      <c r="G34">
+        <v>0.07000259620206</v>
+      </c>
+      <c r="H34">
+        <v>0.226912132045762</v>
+      </c>
+      <c r="I34">
+        <v>0.304566107351522</v>
+      </c>
+      <c r="J34">
+        <v>0.355997133255397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>0.112336044213873</v>
+      </c>
+      <c r="D35">
+        <v>-0.356968424752846</v>
+      </c>
+      <c r="E35">
+        <v>-0.281501873360698</v>
+      </c>
+      <c r="F35">
+        <v>-0.149689995093136</v>
+      </c>
+      <c r="G35">
+        <v>0.12458055342808</v>
+      </c>
+      <c r="H35">
+        <v>0.3596645556181</v>
+      </c>
+      <c r="I35">
+        <v>0.457155720478491</v>
+      </c>
+      <c r="J35">
+        <v>0.522477314752745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>-0.0026855832739639</v>
+      </c>
+      <c r="D36">
+        <v>-0.215359128147968</v>
+      </c>
+      <c r="E36">
+        <v>-0.17494100388238</v>
+      </c>
+      <c r="F36">
+        <v>-0.116834910990387</v>
+      </c>
+      <c r="G36">
+        <v>-0.00213223887932346</v>
+      </c>
+      <c r="H36">
+        <v>0.112253895347338</v>
+      </c>
+      <c r="I36">
+        <v>0.165947047650044</v>
+      </c>
+      <c r="J36">
+        <v>0.200972833804122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0.0466410203659889</v>
+      </c>
+      <c r="D37">
+        <v>-0.191336170751479</v>
+      </c>
+      <c r="E37">
+        <v>-0.148829634082075</v>
+      </c>
+      <c r="F37">
+        <v>-0.0873802688870833</v>
+      </c>
+      <c r="G37">
+        <v>0.0451175271174818</v>
+      </c>
+      <c r="H37">
+        <v>0.182073311174669</v>
+      </c>
+      <c r="I37">
+        <v>0.24903112393896</v>
+      </c>
+      <c r="J37">
+        <v>0.290796303159321</v>
       </c>
     </row>
   </sheetData>

--- a/small_data/assemb_stat_diff_summs.xlsx
+++ b/small_data/assemb_stat_diff_summs.xlsx
@@ -460,28 +460,28 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>-6.71498185051172</v>
+        <v>-6.28926045966155</v>
       </c>
       <c r="D2">
-        <v>-14.9953401698671</v>
+        <v>-15.6494188847473</v>
       </c>
       <c r="E2">
-        <v>-13.6042770829002</v>
+        <v>-14.1152757753519</v>
       </c>
       <c r="F2">
-        <v>-11.4675984131752</v>
+        <v>-11.6672756099869</v>
       </c>
       <c r="G2">
-        <v>-6.68483490150677</v>
+        <v>-6.29855738206294</v>
       </c>
       <c r="H2">
-        <v>-1.99407813560062</v>
+        <v>-0.887271997592611</v>
       </c>
       <c r="I2">
-        <v>0.102839850578128</v>
+        <v>1.37744037669424</v>
       </c>
       <c r="J2">
-        <v>1.36490946065958</v>
+        <v>2.89845085958238</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -492,28 +492,28 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>-11.3106056438356</v>
+        <v>-10.175389459901</v>
       </c>
       <c r="D3">
-        <v>-20.2654271555818</v>
+        <v>-20.3517465331511</v>
       </c>
       <c r="E3">
-        <v>-18.7716953260834</v>
+        <v>-18.7077304304085</v>
       </c>
       <c r="F3">
-        <v>-16.5039586831735</v>
+        <v>-16.1786854311004</v>
       </c>
       <c r="G3">
-        <v>-11.2806180484946</v>
+        <v>-10.1335489592795</v>
       </c>
       <c r="H3">
-        <v>-6.10269521146742</v>
+        <v>-4.23808128599695</v>
       </c>
       <c r="I3">
-        <v>-3.90757068512222</v>
+        <v>-1.77469683011963</v>
       </c>
       <c r="J3">
-        <v>-2.51005487957389</v>
+        <v>-0.120922302385286</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -524,28 +524,28 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>5.32813116066256</v>
+        <v>6.0994111371352</v>
       </c>
       <c r="D4">
-        <v>1.16451109895054</v>
+        <v>0.930015567852286</v>
       </c>
       <c r="E4">
-        <v>1.84720317373504</v>
+        <v>1.74780832242901</v>
       </c>
       <c r="F4">
-        <v>2.87210093728766</v>
+        <v>3.01824897262348</v>
       </c>
       <c r="G4">
-        <v>5.25788228627159</v>
+        <v>6.06133455414305</v>
       </c>
       <c r="H4">
-        <v>7.86137481172283</v>
+        <v>9.21718752425877</v>
       </c>
       <c r="I4">
-        <v>9.01635082293291</v>
+        <v>10.584594405666</v>
       </c>
       <c r="J4">
-        <v>9.80183620035996</v>
+        <v>11.5082615428779</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -556,28 +556,28 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>2.62079154043884</v>
+        <v>3.31163509256493</v>
       </c>
       <c r="D5">
-        <v>-1.8785268258829</v>
+        <v>-2.21771910148499</v>
       </c>
       <c r="E5">
-        <v>-1.13746211745855</v>
+        <v>-1.35246369005421</v>
       </c>
       <c r="F5">
-        <v>-0.043179518587833</v>
+        <v>0.0586149355346501</v>
       </c>
       <c r="G5">
-        <v>2.59730875457332</v>
+        <v>3.24924090332117</v>
       </c>
       <c r="H5">
-        <v>5.30204039569892</v>
+        <v>6.62214475682753</v>
       </c>
       <c r="I5">
-        <v>6.48916414546396</v>
+        <v>8.07977306837009</v>
       </c>
       <c r="J5">
-        <v>7.29125318395938</v>
+        <v>9.13177699835192</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -588,28 +588,28 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.123870490101028</v>
+        <v>-0.195188910436003</v>
       </c>
       <c r="D6">
-        <v>-2.06886745964639</v>
+        <v>-2.54740141041963</v>
       </c>
       <c r="E6">
-        <v>-1.7171038695439</v>
+        <v>-2.14008769364703</v>
       </c>
       <c r="F6">
-        <v>-1.20239923546895</v>
+        <v>-1.51123709366322</v>
       </c>
       <c r="G6">
-        <v>-0.108672608623133</v>
+        <v>-0.170927881050591</v>
       </c>
       <c r="H6">
-        <v>0.928196091037739</v>
+        <v>1.09340177635846</v>
       </c>
       <c r="I6">
-        <v>1.42544580638158</v>
+        <v>1.66756328833048</v>
       </c>
       <c r="J6">
-        <v>1.75796073837911</v>
+        <v>2.03050351015227</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -620,28 +620,28 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>1.61124903295449</v>
+        <v>1.93108329339238</v>
       </c>
       <c r="D7">
-        <v>-0.783458172441029</v>
+        <v>-0.865887787939682</v>
       </c>
       <c r="E7">
-        <v>-0.389051504504123</v>
+        <v>-0.421363970197625</v>
       </c>
       <c r="F7">
-        <v>0.214098652840222</v>
+        <v>0.272530272553011</v>
       </c>
       <c r="G7">
-        <v>1.58765362049186</v>
+        <v>1.91615167274263</v>
       </c>
       <c r="H7">
-        <v>3.02151902229757</v>
+        <v>3.60687454295813</v>
       </c>
       <c r="I7">
-        <v>3.68578926411884</v>
+        <v>4.33576111735203</v>
       </c>
       <c r="J7">
-        <v>4.11920392193614</v>
+        <v>4.86151607892346</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -652,28 +652,28 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.277752462845085</v>
+        <v>0.411696382482986</v>
       </c>
       <c r="D8">
-        <v>-0.117359143128354</v>
+        <v>-0.249091920185393</v>
       </c>
       <c r="E8">
-        <v>-0.0499205774295493</v>
+        <v>-0.13654276982174</v>
       </c>
       <c r="F8">
-        <v>0.0239999119751517</v>
+        <v>0.0151094135800846</v>
       </c>
       <c r="G8">
-        <v>0.213294522008544</v>
+        <v>0.3660249138964</v>
       </c>
       <c r="H8">
-        <v>0.600024902851504</v>
+        <v>0.860553498678577</v>
       </c>
       <c r="I8">
-        <v>0.824807798193651</v>
+        <v>1.11115241017267</v>
       </c>
       <c r="J8">
-        <v>0.973458005697705</v>
+        <v>1.28413337487333</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -684,28 +684,28 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.135341870414618</v>
+        <v>0.221395116529238</v>
       </c>
       <c r="D9">
-        <v>-0.469414257872036</v>
+        <v>-0.569394091881313</v>
       </c>
       <c r="E9">
-        <v>-0.344208302841999</v>
+        <v>-0.419837054502752</v>
       </c>
       <c r="F9">
-        <v>-0.170107993251041</v>
+        <v>-0.220498548552372</v>
       </c>
       <c r="G9">
-        <v>0.0975164424432702</v>
+        <v>0.178678701916938</v>
       </c>
       <c r="H9">
-        <v>0.492563357323094</v>
+        <v>0.707704455891642</v>
       </c>
       <c r="I9">
-        <v>0.718344418913979</v>
+        <v>0.978935093219928</v>
       </c>
       <c r="J9">
-        <v>0.869450698656514</v>
+        <v>1.16498551605816</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -716,28 +716,28 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>-4.86278153683557</v>
+        <v>-4.61761390863431</v>
       </c>
       <c r="D10">
-        <v>-9.17585413245675</v>
+        <v>-9.34589889501281</v>
       </c>
       <c r="E10">
-        <v>-8.4662292376023</v>
+        <v>-8.56106536580268</v>
       </c>
       <c r="F10">
-        <v>-7.36965935236195</v>
+        <v>-7.34106388926031</v>
       </c>
       <c r="G10">
-        <v>-4.86119179065047</v>
+        <v>-4.62952544462271</v>
       </c>
       <c r="H10">
-        <v>-2.36444429277739</v>
+        <v>-1.86439649148389</v>
       </c>
       <c r="I10">
-        <v>-1.31516722934998</v>
+        <v>-0.659563126163568</v>
       </c>
       <c r="J10">
-        <v>-0.577208293499389</v>
+        <v>0.0934084505037146</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -748,28 +748,28 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>-10.6915573830053</v>
+        <v>-10.1918244355044</v>
       </c>
       <c r="D11">
-        <v>-15.6591687105522</v>
+        <v>-15.653374121615</v>
       </c>
       <c r="E11">
-        <v>-14.8814768071431</v>
+        <v>-14.7512628347464</v>
       </c>
       <c r="F11">
-        <v>-13.5825018805857</v>
+        <v>-13.409645316035</v>
       </c>
       <c r="G11">
-        <v>-10.6792673755448</v>
+        <v>-10.1904616407186</v>
       </c>
       <c r="H11">
-        <v>-7.79679296228307</v>
+        <v>-6.9699635633676</v>
       </c>
       <c r="I11">
-        <v>-6.59345801489192</v>
+        <v>-5.65384562544182</v>
       </c>
       <c r="J11">
-        <v>-5.81786504430092</v>
+        <v>-4.78633922212726</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -780,28 +780,28 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>3.46622468185583</v>
+        <v>3.84980450479534</v>
       </c>
       <c r="D12">
-        <v>0.886443868264126</v>
+        <v>0.765538415435214</v>
       </c>
       <c r="E12">
-        <v>1.27470368691857</v>
+        <v>1.25365110732723</v>
       </c>
       <c r="F12">
-        <v>1.90430925392843</v>
+        <v>2.0019164693527</v>
       </c>
       <c r="G12">
-        <v>3.41616265905204</v>
+        <v>3.81703484534976</v>
       </c>
       <c r="H12">
-        <v>5.05679256295089</v>
+        <v>5.73156028602196</v>
       </c>
       <c r="I12">
-        <v>5.81802286270355</v>
+        <v>6.62979631584233</v>
       </c>
       <c r="J12">
-        <v>6.31014366729017</v>
+        <v>7.17663181760663</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -812,28 +812,28 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>1.48470482130112</v>
+        <v>1.82870260902686</v>
       </c>
       <c r="D13">
-        <v>-1.40360523967301</v>
+        <v>-1.53313887266608</v>
       </c>
       <c r="E13">
-        <v>-0.953123536067212</v>
+        <v>-0.980218398625982</v>
       </c>
       <c r="F13">
-        <v>-0.207217897447427</v>
+        <v>-0.132213907705388</v>
       </c>
       <c r="G13">
-        <v>1.48185260010846</v>
+        <v>1.80377579333797</v>
       </c>
       <c r="H13">
-        <v>3.18219964976974</v>
+        <v>3.8269920426856</v>
       </c>
       <c r="I13">
-        <v>3.94716362597043</v>
+        <v>4.74380204814614</v>
       </c>
       <c r="J13">
-        <v>4.44125259016358</v>
+        <v>5.31083810764502</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -844,28 +844,28 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-0.171860605185268</v>
+        <v>-0.182422737082268</v>
       </c>
       <c r="D14">
-        <v>-1.49199855699856</v>
+        <v>-1.34286414565826</v>
       </c>
       <c r="E14">
-        <v>-1.26111111111111</v>
+        <v>-1.16129112889175</v>
       </c>
       <c r="F14">
-        <v>-0.930555555555555</v>
+        <v>-0.861111111111111</v>
       </c>
       <c r="G14">
-        <v>-0.167452868768659</v>
+        <v>-0.176729703045492</v>
       </c>
       <c r="H14">
-        <v>0.576709100475548</v>
+        <v>0.487799126827765</v>
       </c>
       <c r="I14">
-        <v>0.919191919191919</v>
+        <v>0.783028846153846</v>
       </c>
       <c r="J14">
-        <v>1.13856263018028</v>
+        <v>0.964478222800591</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -876,28 +876,28 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>0.07614802577937</v>
+        <v>0.0437528724507728</v>
       </c>
       <c r="D15">
-        <v>-1.15556623931624</v>
+        <v>-1.1083433600713</v>
       </c>
       <c r="E15">
-        <v>-0.943616452991453</v>
+        <v>-0.921257810816634</v>
       </c>
       <c r="F15">
-        <v>-0.634256329970339</v>
+        <v>-0.629578081232493</v>
       </c>
       <c r="G15">
-        <v>0.0776515151515147</v>
+        <v>0.0469241542770962</v>
       </c>
       <c r="H15">
-        <v>0.788888888888889</v>
+        <v>0.708726847842559</v>
       </c>
       <c r="I15">
-        <v>1.1</v>
+        <v>0.987145068553738</v>
       </c>
       <c r="J15">
-        <v>1.31425595238095</v>
+        <v>1.1826268115942</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -908,28 +908,28 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.184027217137055</v>
+        <v>0.180035397274659</v>
       </c>
       <c r="D16">
-        <v>-0.957167832167833</v>
+        <v>-0.948717948717949</v>
       </c>
       <c r="E16">
-        <v>-0.76010878010878</v>
+        <v>-0.766255411255411</v>
       </c>
       <c r="F16">
-        <v>-0.472260378510379</v>
+        <v>-0.480408072319837</v>
       </c>
       <c r="G16">
-        <v>0.184036796536796</v>
+        <v>0.177872127872128</v>
       </c>
       <c r="H16">
-        <v>0.839847999222999</v>
+        <v>0.833471736596736</v>
       </c>
       <c r="I16">
-        <v>1.13056623931624</v>
+        <v>1.13641053391053</v>
       </c>
       <c r="J16">
-        <v>1.31968253968254</v>
+        <v>1.32989010989011</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -940,28 +940,28 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>0.0965194711419455</v>
+        <v>0.0493058996679695</v>
       </c>
       <c r="D17">
-        <v>-0.95659632034632</v>
+        <v>-1.02222222222222</v>
       </c>
       <c r="E17">
-        <v>-0.783333333333333</v>
+        <v>-0.839629814629814</v>
       </c>
       <c r="F17">
-        <v>-0.513888888888889</v>
+        <v>-0.577350427350427</v>
       </c>
       <c r="G17">
-        <v>0.0943181818181813</v>
+        <v>0.0476356976356977</v>
       </c>
       <c r="H17">
-        <v>0.711111111111111</v>
+        <v>0.67122668997669</v>
       </c>
       <c r="I17">
-        <v>0.988118131868132</v>
+        <v>0.948736055611055</v>
       </c>
       <c r="J17">
-        <v>1.16666666666667</v>
+        <v>1.1463986013986</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -972,28 +972,28 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>-1021.42949188977</v>
+        <v>-1395.44199064065</v>
       </c>
       <c r="D18">
-        <v>-4251.87289590614</v>
+        <v>-4253.89275732381</v>
       </c>
       <c r="E18">
-        <v>-3046.9392309622</v>
+        <v>-3267.10431706006</v>
       </c>
       <c r="F18">
-        <v>-1874.58693328686</v>
+        <v>-2313.24032526734</v>
       </c>
       <c r="G18">
-        <v>-648.525615131383</v>
+        <v>-1092.32610085043</v>
       </c>
       <c r="H18">
-        <v>-226.172207924737</v>
+        <v>-461.610496964737</v>
       </c>
       <c r="I18">
-        <v>-124.835761895636</v>
+        <v>-268.554256094828</v>
       </c>
       <c r="J18">
-        <v>-63.7178922172429</v>
+        <v>-136.242006091918</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1004,28 +1004,28 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>-1141.77768627603</v>
+        <v>-1308.78798951372</v>
       </c>
       <c r="D19">
-        <v>-4721.25832393704</v>
+        <v>-4435.10325202725</v>
       </c>
       <c r="E19">
-        <v>-3421.28228872657</v>
+        <v>-3515.19165241189</v>
       </c>
       <c r="F19">
-        <v>-2114.80379157417</v>
+        <v>-2508.01831172994</v>
       </c>
       <c r="G19">
-        <v>-796.215199860615</v>
+        <v>-1198.90938099178</v>
       </c>
       <c r="H19">
-        <v>-276.735391379555</v>
+        <v>-306.844575824217</v>
       </c>
       <c r="I19">
-        <v>-57.6312598049063</v>
+        <v>566.07649234667</v>
       </c>
       <c r="J19">
-        <v>267.282592738501</v>
+        <v>1659.07731706348</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1036,28 +1036,28 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>1282.32590406943</v>
+        <v>1375.91904726736</v>
       </c>
       <c r="D20">
-        <v>-2086.12574711908</v>
+        <v>-1814.42993340758</v>
       </c>
       <c r="E20">
-        <v>-951.226088171403</v>
+        <v>-889.232718551712</v>
       </c>
       <c r="F20">
-        <v>-101.282171109858</v>
+        <v>-83.1553209274464</v>
       </c>
       <c r="G20">
-        <v>837.454837578859</v>
+        <v>1060.30138128774</v>
       </c>
       <c r="H20">
-        <v>2910.42166594018</v>
+        <v>3020.66833283382</v>
       </c>
       <c r="I20">
-        <v>5058.40366453614</v>
+        <v>4782.61359282766</v>
       </c>
       <c r="J20">
-        <v>7357.59064066867</v>
+        <v>6553.25219300796</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1068,28 +1068,28 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>-6926.26593034626</v>
+        <v>-6503.81992651326</v>
       </c>
       <c r="D21">
-        <v>-46337.347600073</v>
+        <v>-34998.0253335186</v>
       </c>
       <c r="E21">
-        <v>-28370.8393613774</v>
+        <v>-23076.5817896361</v>
       </c>
       <c r="F21">
-        <v>-13990.422556422</v>
+        <v>-12757.8953929646</v>
       </c>
       <c r="G21">
-        <v>-2170.96427909824</v>
+        <v>-3115.84858954148</v>
       </c>
       <c r="H21">
-        <v>968.215442956944</v>
+        <v>145.944666063553</v>
       </c>
       <c r="I21">
-        <v>2223.93160956581</v>
+        <v>1225.07980063216</v>
       </c>
       <c r="J21">
-        <v>3301.76749972704</v>
+        <v>2032.31018982153</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1100,28 +1100,28 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>0.0156951959999242</v>
+        <v>2.52782820071423</v>
       </c>
       <c r="D22">
-        <v>-6.01851541926485</v>
+        <v>-8.17318930268546</v>
       </c>
       <c r="E22">
-        <v>-3.76491222184232</v>
+        <v>-5.23988688321531</v>
       </c>
       <c r="F22">
-        <v>-1.75474676652114</v>
+        <v>-2.20345466450035</v>
       </c>
       <c r="G22">
-        <v>0.0616626204190838</v>
+        <v>2.00260226689538</v>
       </c>
       <c r="H22">
-        <v>1.82338259343834</v>
+        <v>7.78828748397583</v>
       </c>
       <c r="I22">
-        <v>3.70536278102032</v>
+        <v>11.8414074264778</v>
       </c>
       <c r="J22">
-        <v>5.78695839643975</v>
+        <v>15.5772610812936</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1132,28 +1132,28 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>20.0872155064484</v>
+        <v>43.3037399769321</v>
       </c>
       <c r="D23">
-        <v>-1.68459223819547</v>
+        <v>2.28779066940433</v>
       </c>
       <c r="E23">
-        <v>-0.291545921200079</v>
+        <v>4.73282588174677</v>
       </c>
       <c r="F23">
-        <v>1.12216242505374</v>
+        <v>9.74387369980869</v>
       </c>
       <c r="G23">
-        <v>7.13132341067323</v>
+        <v>31.9746552453929</v>
       </c>
       <c r="H23">
-        <v>34.620323136206</v>
+        <v>77.3622784711729</v>
       </c>
       <c r="I23">
-        <v>70.2949393946668</v>
+        <v>116.598102215561</v>
       </c>
       <c r="J23">
-        <v>113.247676155926</v>
+        <v>155.750504226592</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1164,28 +1164,28 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>0.152896113362656</v>
+        <v>0.325242523995919</v>
       </c>
       <c r="D24">
-        <v>-0.0611765143611194</v>
+        <v>-0.135403416960313</v>
       </c>
       <c r="E24">
-        <v>-0.0228617718359123</v>
+        <v>-0.0620787719678308</v>
       </c>
       <c r="F24">
-        <v>0.0049005796831924</v>
+        <v>0.00529524609927168</v>
       </c>
       <c r="G24">
-        <v>0.0651598495807462</v>
+        <v>0.149093711807687</v>
       </c>
       <c r="H24">
-        <v>0.267981579595129</v>
+        <v>0.540880292790025</v>
       </c>
       <c r="I24">
-        <v>0.499026538341225</v>
+        <v>0.941804224427651</v>
       </c>
       <c r="J24">
-        <v>0.761469689997489</v>
+        <v>1.35296656617092</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1196,28 +1196,28 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>-0.231212725020967</v>
+        <v>-0.16041989091268</v>
       </c>
       <c r="D25">
-        <v>-0.618713207317045</v>
+        <v>-0.768302595717841</v>
       </c>
       <c r="E25">
-        <v>-0.304124523768848</v>
+        <v>-0.405451620478466</v>
       </c>
       <c r="F25">
-        <v>-0.0971056074739425</v>
+        <v>-0.142101550251025</v>
       </c>
       <c r="G25">
-        <v>0.0250678205588138</v>
+        <v>0.0584758606647796</v>
       </c>
       <c r="H25">
-        <v>0.207990665723147</v>
+        <v>0.398796632523043</v>
       </c>
       <c r="I25">
-        <v>0.431193596351557</v>
+        <v>0.750791811577763</v>
       </c>
       <c r="J25">
-        <v>0.67157072597216</v>
+        <v>1.17240854754213</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1228,28 +1228,28 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>-871.819333716694</v>
+        <v>-1232.41759915485</v>
       </c>
       <c r="D26">
-        <v>-3884.83199586753</v>
+        <v>-3984.99298751282</v>
       </c>
       <c r="E26">
-        <v>-2721.68450445061</v>
+        <v>-2988.13091956821</v>
       </c>
       <c r="F26">
-        <v>-1590.88383758929</v>
+        <v>-2058.66363577641</v>
       </c>
       <c r="G26">
-        <v>-517.508421074822</v>
+        <v>-916.513778510631</v>
       </c>
       <c r="H26">
-        <v>-177.060079522769</v>
+        <v>-382.957438315388</v>
       </c>
       <c r="I26">
-        <v>-103.610399962089</v>
+        <v>-233.169193489235</v>
       </c>
       <c r="J26">
-        <v>-61.8126471823326</v>
+        <v>-149.050176754963</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1260,28 +1260,28 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>-930.210409678165</v>
+        <v>-1051.56583981188</v>
       </c>
       <c r="D27">
-        <v>-4221.13488946688</v>
+        <v>-4039.54813258833</v>
       </c>
       <c r="E27">
-        <v>-3014.04321335929</v>
+        <v>-3116.08864141303</v>
       </c>
       <c r="F27">
-        <v>-1768.11552399456</v>
+        <v>-2165.39009631503</v>
       </c>
       <c r="G27">
-        <v>-601.367560800374</v>
+        <v>-943.858868290124</v>
       </c>
       <c r="H27">
-        <v>-191.4198957599</v>
+        <v>-147.874432211539</v>
       </c>
       <c r="I27">
-        <v>4.85500566011878</v>
+        <v>774.628161019961</v>
       </c>
       <c r="J27">
-        <v>349.982287501324</v>
+        <v>1858.74538222118</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1292,28 +1292,28 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <v>1167.54458057462</v>
+        <v>1223.98241153487</v>
       </c>
       <c r="D28">
-        <v>-2007.68522031539</v>
+        <v>-1646.71392884394</v>
       </c>
       <c r="E28">
-        <v>-879.794103347742</v>
+        <v>-820.316679256282</v>
       </c>
       <c r="F28">
-        <v>-103.678816991169</v>
+        <v>-87.0757614377082</v>
       </c>
       <c r="G28">
-        <v>725.415174825705</v>
+        <v>895.150895525299</v>
       </c>
       <c r="H28">
-        <v>2684.73229680741</v>
+        <v>2722.48950180655</v>
       </c>
       <c r="I28">
-        <v>4771.11304502429</v>
+        <v>4402.9847100338</v>
       </c>
       <c r="J28">
-        <v>6974.32550547427</v>
+        <v>6136.60049681679</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1324,28 +1324,28 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>-6377.13696394085</v>
+        <v>-5994.20541702937</v>
       </c>
       <c r="D29">
-        <v>-42421.4984202323</v>
+        <v>-32889.3218481956</v>
       </c>
       <c r="E29">
-        <v>-26203.676099617</v>
+        <v>-21705.6018762992</v>
       </c>
       <c r="F29">
-        <v>-12397.0582924054</v>
+        <v>-11436.2846860455</v>
       </c>
       <c r="G29">
-        <v>-1906.4024494205</v>
+        <v>-2718.89065648662</v>
       </c>
       <c r="H29">
-        <v>697.317214552615</v>
+        <v>46.7113979136568</v>
       </c>
       <c r="I29">
-        <v>1895.2786635882</v>
+        <v>951.626937078482</v>
       </c>
       <c r="J29">
-        <v>3014.97997046524</v>
+        <v>1712.52790124894</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1356,28 +1356,28 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>0.136905941718429</v>
+        <v>0.117948151890305</v>
       </c>
       <c r="D30">
-        <v>-0.877157082133467</v>
+        <v>-0.749690501868997</v>
       </c>
       <c r="E30">
-        <v>-0.679357753285874</v>
+        <v>-0.585889954881741</v>
       </c>
       <c r="F30">
-        <v>-0.417433437490456</v>
+        <v>-0.35478817500329</v>
       </c>
       <c r="G30">
-        <v>0.134806138262599</v>
+        <v>0.109541170419209</v>
       </c>
       <c r="H30">
-        <v>0.695155385748541</v>
+        <v>0.60162286847839</v>
       </c>
       <c r="I30">
-        <v>0.970090686883757</v>
+        <v>0.846989499258486</v>
       </c>
       <c r="J30">
-        <v>1.15122711994181</v>
+        <v>1.01999862194812</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1388,28 +1388,28 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>0.209389729750557</v>
+        <v>-0.0283320383225829</v>
       </c>
       <c r="D31">
-        <v>-1.39836503901498</v>
+        <v>-1.62186125046172</v>
       </c>
       <c r="E31">
-        <v>-1.13900911397382</v>
+        <v>-1.4048814586153</v>
       </c>
       <c r="F31">
-        <v>-0.689664005847357</v>
+        <v>-1.01094236684251</v>
       </c>
       <c r="G31">
-        <v>0.238987147410868</v>
+        <v>0.0165516891396716</v>
       </c>
       <c r="H31">
-        <v>1.07502367983878</v>
+        <v>0.884067947816565</v>
       </c>
       <c r="I31">
-        <v>1.43259478445806</v>
+        <v>1.20364316951694</v>
       </c>
       <c r="J31">
-        <v>1.66488497305958</v>
+        <v>1.41308489609531</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1420,28 +1420,28 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>0.0747791752508714</v>
+        <v>0.124729810125603</v>
       </c>
       <c r="D32">
-        <v>-0.651083385391254</v>
+        <v>-0.519180368718476</v>
       </c>
       <c r="E32">
-        <v>-0.509216983999388</v>
+        <v>-0.383934016358229</v>
       </c>
       <c r="F32">
-        <v>-0.309122863178347</v>
+        <v>-0.208367479234982</v>
       </c>
       <c r="G32">
-        <v>0.0782145385375618</v>
+        <v>0.132135135919057</v>
       </c>
       <c r="H32">
-        <v>0.458353477620899</v>
+        <v>0.457724747512583</v>
       </c>
       <c r="I32">
-        <v>0.642513776366901</v>
+        <v>0.607753421459527</v>
       </c>
       <c r="J32">
-        <v>0.75494011079895</v>
+        <v>0.717926503135921</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1452,28 +1452,28 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>0.21381851283941</v>
+        <v>0.315977541021475</v>
       </c>
       <c r="D33">
-        <v>-0.606764635863612</v>
+        <v>-0.480964653291434</v>
       </c>
       <c r="E33">
-        <v>-0.462590953775841</v>
+        <v>-0.318823424123334</v>
       </c>
       <c r="F33">
-        <v>-0.249099592098478</v>
+        <v>-0.110368276487599</v>
       </c>
       <c r="G33">
-        <v>0.210659096744519</v>
+        <v>0.322754163764215</v>
       </c>
       <c r="H33">
-        <v>0.679324572857181</v>
+        <v>0.741911823720674</v>
       </c>
       <c r="I33">
-        <v>0.911600400215572</v>
+        <v>0.946509251813705</v>
       </c>
       <c r="J33">
-        <v>1.05314494459591</v>
+        <v>1.0838446638667</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1484,28 +1484,28 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>0.068168428638832</v>
+        <v>0.0544102549101597</v>
       </c>
       <c r="D34">
-        <v>-0.229746070818917</v>
+        <v>-0.185552800445083</v>
       </c>
       <c r="E34">
-        <v>-0.173152807278014</v>
+        <v>-0.1380474885068</v>
       </c>
       <c r="F34">
-        <v>-0.0921183519318571</v>
+        <v>-0.0738070593917732</v>
       </c>
       <c r="G34">
-        <v>0.07000259620206</v>
+        <v>0.0540068149773808</v>
       </c>
       <c r="H34">
-        <v>0.226912132045762</v>
+        <v>0.183023728621102</v>
       </c>
       <c r="I34">
-        <v>0.304566107351522</v>
+        <v>0.25106841595825</v>
       </c>
       <c r="J34">
-        <v>0.355997133255397</v>
+        <v>0.294419373827237</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1516,28 +1516,28 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>0.112336044213873</v>
+        <v>0.0248615265851072</v>
       </c>
       <c r="D35">
-        <v>-0.356968424752846</v>
+        <v>-0.420891489360444</v>
       </c>
       <c r="E35">
-        <v>-0.281501873360698</v>
+        <v>-0.363236987383383</v>
       </c>
       <c r="F35">
-        <v>-0.149689995093136</v>
+        <v>-0.254732633710665</v>
       </c>
       <c r="G35">
-        <v>0.12458055342808</v>
+        <v>0.0415920164700745</v>
       </c>
       <c r="H35">
-        <v>0.3596645556181</v>
+        <v>0.278429279801354</v>
       </c>
       <c r="I35">
-        <v>0.457155720478491</v>
+        <v>0.364502436529501</v>
       </c>
       <c r="J35">
-        <v>0.522477314752745</v>
+        <v>0.417981645673596</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1548,28 +1548,28 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>-0.0026855832739639</v>
+        <v>0.012261991675222</v>
       </c>
       <c r="D36">
-        <v>-0.215359128147968</v>
+        <v>-0.167527702503288</v>
       </c>
       <c r="E36">
-        <v>-0.17494100388238</v>
+        <v>-0.12917256143739</v>
       </c>
       <c r="F36">
-        <v>-0.116834910990387</v>
+        <v>-0.0813541705524718</v>
       </c>
       <c r="G36">
-        <v>-0.00213223887932346</v>
+        <v>0.0139388992507928</v>
       </c>
       <c r="H36">
-        <v>0.112253895347338</v>
+        <v>0.105483148752606</v>
       </c>
       <c r="I36">
-        <v>0.165947047650044</v>
+        <v>0.148018647233191</v>
       </c>
       <c r="J36">
-        <v>0.200972833804122</v>
+        <v>0.178146248844339</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1580,28 +1580,28 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>0.0466410203659889</v>
+        <v>0.0745254689023338</v>
       </c>
       <c r="D37">
-        <v>-0.191336170751479</v>
+        <v>-0.14763026585225</v>
       </c>
       <c r="E37">
-        <v>-0.148829634082075</v>
+        <v>-0.103940157782571</v>
       </c>
       <c r="F37">
-        <v>-0.0873802688870833</v>
+        <v>-0.044755888023034</v>
       </c>
       <c r="G37">
-        <v>0.0451175271174818</v>
+        <v>0.0758725182632624</v>
       </c>
       <c r="H37">
-        <v>0.182073311174669</v>
+        <v>0.193442430088479</v>
       </c>
       <c r="I37">
-        <v>0.24903112393896</v>
+        <v>0.251803446351814</v>
       </c>
       <c r="J37">
-        <v>0.290796303159321</v>
+        <v>0.287285538119823</v>
       </c>
     </row>
   </sheetData>

--- a/small_data/assemb_stat_diff_summs.xlsx
+++ b/small_data/assemb_stat_diff_summs.xlsx
@@ -460,28 +460,28 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>-6.28926045966155</v>
+        <v>-5.738773040421</v>
       </c>
       <c r="D2">
-        <v>-15.6494188847473</v>
+        <v>-13.2515048005639</v>
       </c>
       <c r="E2">
-        <v>-14.1152757753519</v>
+        <v>-12.0213774320311</v>
       </c>
       <c r="F2">
-        <v>-11.6672756099869</v>
+        <v>-10.0557574439473</v>
       </c>
       <c r="G2">
-        <v>-6.29855738206294</v>
+        <v>-5.74638644935123</v>
       </c>
       <c r="H2">
-        <v>-0.887271997592611</v>
+        <v>-1.4366187652357</v>
       </c>
       <c r="I2">
-        <v>1.37744037669424</v>
+        <v>0.456571683137834</v>
       </c>
       <c r="J2">
-        <v>2.89845085958238</v>
+        <v>1.6520800899083</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -492,28 +492,28 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>-10.175389459901</v>
+        <v>-10.7477486052705</v>
       </c>
       <c r="D3">
-        <v>-20.3517465331511</v>
+        <v>-19.261115482351</v>
       </c>
       <c r="E3">
-        <v>-18.7077304304085</v>
+        <v>-17.8537444394428</v>
       </c>
       <c r="F3">
-        <v>-16.1786854311004</v>
+        <v>-15.5620861771806</v>
       </c>
       <c r="G3">
-        <v>-10.1335489592795</v>
+        <v>-10.7340972254679</v>
       </c>
       <c r="H3">
-        <v>-4.23808128599695</v>
+        <v>-5.93164640672686</v>
       </c>
       <c r="I3">
-        <v>-1.77469683011963</v>
+        <v>-3.82020638354995</v>
       </c>
       <c r="J3">
-        <v>-0.120922302385286</v>
+        <v>-2.46214186402184</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -524,28 +524,28 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>6.0994111371352</v>
+        <v>4.26523735321513</v>
       </c>
       <c r="D4">
-        <v>0.930015567852286</v>
+        <v>0.451330220935365</v>
       </c>
       <c r="E4">
-        <v>1.74780832242901</v>
+        <v>1.04764275506257</v>
       </c>
       <c r="F4">
-        <v>3.01824897262348</v>
+        <v>1.96498338388659</v>
       </c>
       <c r="G4">
-        <v>6.06133455414305</v>
+        <v>4.21155885652867</v>
       </c>
       <c r="H4">
-        <v>9.21718752425877</v>
+        <v>6.58042630529558</v>
       </c>
       <c r="I4">
-        <v>10.584594405666</v>
+        <v>7.6910847200141</v>
       </c>
       <c r="J4">
-        <v>11.5082615428779</v>
+        <v>8.39926556221659</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -556,28 +556,28 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>3.31163509256493</v>
+        <v>2.66776880259797</v>
       </c>
       <c r="D5">
-        <v>-2.21771910148499</v>
+        <v>-1.41593750520085</v>
       </c>
       <c r="E5">
-        <v>-1.35246369005421</v>
+        <v>-0.73969906426028</v>
       </c>
       <c r="F5">
-        <v>0.0586149355346501</v>
+        <v>0.288417946785214</v>
       </c>
       <c r="G5">
-        <v>3.24924090332117</v>
+        <v>2.61588924680037</v>
       </c>
       <c r="H5">
-        <v>6.62214475682753</v>
+        <v>5.1005619812275</v>
       </c>
       <c r="I5">
-        <v>8.07977306837009</v>
+        <v>6.28295556852738</v>
       </c>
       <c r="J5">
-        <v>9.13177699835192</v>
+        <v>7.08106960498033</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -588,28 +588,28 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.195188910436003</v>
+        <v>0.0365244518674071</v>
       </c>
       <c r="D6">
-        <v>-2.54740141041963</v>
+        <v>-1.52135906680684</v>
       </c>
       <c r="E6">
-        <v>-2.14008769364703</v>
+        <v>-1.22671971506621</v>
       </c>
       <c r="F6">
-        <v>-1.51123709366322</v>
+        <v>-0.811450731346798</v>
       </c>
       <c r="G6">
-        <v>-0.170927881050591</v>
+        <v>0.0459617689609129</v>
       </c>
       <c r="H6">
-        <v>1.09340177635846</v>
+        <v>0.882092572466615</v>
       </c>
       <c r="I6">
-        <v>1.66756328833048</v>
+        <v>1.29189926503465</v>
       </c>
       <c r="J6">
-        <v>2.03050351015227</v>
+        <v>1.53904690698423</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -620,28 +620,28 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>1.93108329339238</v>
+        <v>1.06640900797369</v>
       </c>
       <c r="D7">
-        <v>-0.865887787939682</v>
+        <v>-0.864862035770402</v>
       </c>
       <c r="E7">
-        <v>-0.421363970197625</v>
+        <v>-0.552418070867218</v>
       </c>
       <c r="F7">
-        <v>0.272530272553011</v>
+        <v>-0.0760862782095817</v>
       </c>
       <c r="G7">
-        <v>1.91615167274263</v>
+        <v>1.00816977797528</v>
       </c>
       <c r="H7">
-        <v>3.60687454295813</v>
+        <v>2.24267929541037</v>
       </c>
       <c r="I7">
-        <v>4.33576111735203</v>
+        <v>2.89213818272977</v>
       </c>
       <c r="J7">
-        <v>4.86151607892346</v>
+        <v>3.31247029494165</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -652,28 +652,28 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.411696382482986</v>
+        <v>0.149393523799689</v>
       </c>
       <c r="D8">
-        <v>-0.249091920185393</v>
+        <v>-0.149523931705027</v>
       </c>
       <c r="E8">
-        <v>-0.13654276982174</v>
+        <v>-0.0856686652961056</v>
       </c>
       <c r="F8">
-        <v>0.0151094135800846</v>
+        <v>-0.0158965424284411</v>
       </c>
       <c r="G8">
-        <v>0.3660249138964</v>
+        <v>0.0925713911770932</v>
       </c>
       <c r="H8">
-        <v>0.860553498678577</v>
+        <v>0.380477147874165</v>
       </c>
       <c r="I8">
-        <v>1.11115241017267</v>
+        <v>0.582298890017222</v>
       </c>
       <c r="J8">
-        <v>1.28413337487333</v>
+        <v>0.722274134658651</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -684,28 +684,28 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.221395116529238</v>
+        <v>0.0993374088649215</v>
       </c>
       <c r="D9">
-        <v>-0.569394091881313</v>
+        <v>-0.31777674531475</v>
       </c>
       <c r="E9">
-        <v>-0.419837054502752</v>
+        <v>-0.226834356501758</v>
       </c>
       <c r="F9">
-        <v>-0.220498548552372</v>
+        <v>-0.0977642656959224</v>
       </c>
       <c r="G9">
-        <v>0.178678701916938</v>
+        <v>0.0513336102164516</v>
       </c>
       <c r="H9">
-        <v>0.707704455891642</v>
+        <v>0.34908995925473</v>
       </c>
       <c r="I9">
-        <v>0.978935093219928</v>
+        <v>0.576218567203819</v>
       </c>
       <c r="J9">
-        <v>1.16498551605816</v>
+        <v>0.734925688417396</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -716,28 +716,28 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>-4.61761390863431</v>
+        <v>-4.47230196401095</v>
       </c>
       <c r="D10">
-        <v>-9.34589889501281</v>
+        <v>-8.67389576357778</v>
       </c>
       <c r="E10">
-        <v>-8.56106536580268</v>
+        <v>-7.98162767648533</v>
       </c>
       <c r="F10">
-        <v>-7.34106388926031</v>
+        <v>-6.85480039407422</v>
       </c>
       <c r="G10">
-        <v>-4.62952544462271</v>
+        <v>-4.45482065610333</v>
       </c>
       <c r="H10">
-        <v>-1.86439649148389</v>
+        <v>-2.09831332017827</v>
       </c>
       <c r="I10">
-        <v>-0.659563126163568</v>
+        <v>-1.06035083575512</v>
       </c>
       <c r="J10">
-        <v>0.0934084505037146</v>
+        <v>-0.391791705913781</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -748,28 +748,28 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>-10.1918244355044</v>
+        <v>-9.8250039074743</v>
       </c>
       <c r="D11">
-        <v>-15.653374121615</v>
+        <v>-14.6834343208693</v>
       </c>
       <c r="E11">
-        <v>-14.7512628347464</v>
+        <v>-13.8857969078763</v>
       </c>
       <c r="F11">
-        <v>-13.409645316035</v>
+        <v>-12.6104790589531</v>
       </c>
       <c r="G11">
-        <v>-10.1904616407186</v>
+        <v>-9.77774372889749</v>
       </c>
       <c r="H11">
-        <v>-6.9699635633676</v>
+        <v>-7.0609264309411</v>
       </c>
       <c r="I11">
-        <v>-5.65384562544182</v>
+        <v>-5.88985743927015</v>
       </c>
       <c r="J11">
-        <v>-4.78633922212726</v>
+        <v>-5.18642525097466</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -780,28 +780,28 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>3.84980450479534</v>
+        <v>2.86526192294602</v>
       </c>
       <c r="D12">
-        <v>0.765538415435214</v>
+        <v>0.368423867917579</v>
       </c>
       <c r="E12">
-        <v>1.25365110732723</v>
+        <v>0.734980386858516</v>
       </c>
       <c r="F12">
-        <v>2.0019164693527</v>
+        <v>1.3326334123069</v>
       </c>
       <c r="G12">
-        <v>3.81703484534976</v>
+        <v>2.83233938757161</v>
       </c>
       <c r="H12">
-        <v>5.73156028602196</v>
+        <v>4.4127854246055</v>
       </c>
       <c r="I12">
-        <v>6.62979631584233</v>
+        <v>5.12681291643866</v>
       </c>
       <c r="J12">
-        <v>7.17663181760663</v>
+        <v>5.62047869293973</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -812,28 +812,28 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>1.82870260902686</v>
+        <v>1.21334675793384</v>
       </c>
       <c r="D13">
-        <v>-1.53313887266608</v>
+        <v>-1.53433488169535</v>
       </c>
       <c r="E13">
-        <v>-0.980218398625982</v>
+        <v>-1.08962871208222</v>
       </c>
       <c r="F13">
-        <v>-0.132213907705388</v>
+        <v>-0.406488761997768</v>
       </c>
       <c r="G13">
-        <v>1.80377579333797</v>
+        <v>1.19769485751536</v>
       </c>
       <c r="H13">
-        <v>3.8269920426856</v>
+        <v>2.84780449261936</v>
       </c>
       <c r="I13">
-        <v>4.74380204814614</v>
+        <v>3.57596593025352</v>
       </c>
       <c r="J13">
-        <v>5.31083810764502</v>
+        <v>4.05752224554015</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -844,28 +844,28 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-0.182422737082268</v>
+        <v>-0.207403072120936</v>
       </c>
       <c r="D14">
-        <v>-1.34286414565826</v>
+        <v>-1.52222222222222</v>
       </c>
       <c r="E14">
-        <v>-1.16129112889175</v>
+        <v>-1.30618686868687</v>
       </c>
       <c r="F14">
-        <v>-0.861111111111111</v>
+        <v>-0.963641219891221</v>
       </c>
       <c r="G14">
-        <v>-0.176729703045492</v>
+        <v>-0.206293706293706</v>
       </c>
       <c r="H14">
-        <v>0.487799126827765</v>
+        <v>0.550847763347764</v>
       </c>
       <c r="I14">
-        <v>0.783028846153846</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="J14">
-        <v>0.964478222800591</v>
+        <v>1.12123737373737</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -876,28 +876,28 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>0.0437528724507728</v>
+        <v>-0.103689612916648</v>
       </c>
       <c r="D15">
-        <v>-1.1083433600713</v>
+        <v>-1.39048992673993</v>
       </c>
       <c r="E15">
-        <v>-0.921257810816634</v>
+        <v>-1.16111111111111</v>
       </c>
       <c r="F15">
-        <v>-0.629578081232493</v>
+        <v>-0.834473339160839</v>
       </c>
       <c r="G15">
-        <v>0.0469241542770962</v>
+        <v>-0.10124883286648</v>
       </c>
       <c r="H15">
-        <v>0.708726847842559</v>
+        <v>0.628253690753691</v>
       </c>
       <c r="I15">
-        <v>0.987145068553738</v>
+        <v>0.954545454545454</v>
       </c>
       <c r="J15">
-        <v>1.1826268115942</v>
+        <v>1.18016025641026</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -908,28 +908,28 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.180035397274659</v>
+        <v>0.181017464402428</v>
       </c>
       <c r="D16">
-        <v>-0.948717948717949</v>
+        <v>-0.962328643578644</v>
       </c>
       <c r="E16">
-        <v>-0.766255411255411</v>
+        <v>-0.758876817626817</v>
       </c>
       <c r="F16">
-        <v>-0.480408072319837</v>
+        <v>-0.469955044955045</v>
       </c>
       <c r="G16">
-        <v>0.177872127872128</v>
+        <v>0.177777777777778</v>
       </c>
       <c r="H16">
-        <v>0.833471736596736</v>
+        <v>0.833333333333334</v>
       </c>
       <c r="I16">
-        <v>1.13641053391053</v>
+        <v>1.14922619047619</v>
       </c>
       <c r="J16">
-        <v>1.32989010989011</v>
+        <v>1.35963383838384</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -940,28 +940,28 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>0.0493058996679695</v>
+        <v>0.0695483944098128</v>
       </c>
       <c r="D17">
-        <v>-1.02222222222222</v>
+        <v>-0.978556096681097</v>
       </c>
       <c r="E17">
-        <v>-0.839629814629814</v>
+        <v>-0.811372377622379</v>
       </c>
       <c r="F17">
-        <v>-0.577350427350427</v>
+        <v>-0.544444444444444</v>
       </c>
       <c r="G17">
-        <v>0.0476356976356977</v>
+        <v>0.0704545454545458</v>
       </c>
       <c r="H17">
-        <v>0.67122668997669</v>
+        <v>0.677835338680928</v>
       </c>
       <c r="I17">
-        <v>0.948736055611055</v>
+        <v>0.970811688311687</v>
       </c>
       <c r="J17">
-        <v>1.1463986013986</v>
+        <v>1.15277777777778</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -972,28 +972,28 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>-1395.44199064065</v>
+        <v>-1041.21102978889</v>
       </c>
       <c r="D18">
-        <v>-4253.89275732381</v>
+        <v>-3395.89715620757</v>
       </c>
       <c r="E18">
-        <v>-3267.10431706006</v>
+        <v>-2657.66701872627</v>
       </c>
       <c r="F18">
-        <v>-2313.24032526734</v>
+        <v>-1843.11406948141</v>
       </c>
       <c r="G18">
-        <v>-1092.32610085043</v>
+        <v>-809.220741831774</v>
       </c>
       <c r="H18">
-        <v>-461.610496964737</v>
+        <v>-313.504674164015</v>
       </c>
       <c r="I18">
-        <v>-268.554256094828</v>
+        <v>-149.435774421775</v>
       </c>
       <c r="J18">
-        <v>-136.242006091918</v>
+        <v>-36.1665801925918</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1004,28 +1004,28 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>-1308.78798951372</v>
+        <v>-1336.04881182603</v>
       </c>
       <c r="D19">
-        <v>-4435.10325202725</v>
+        <v>-4000.83901066723</v>
       </c>
       <c r="E19">
-        <v>-3515.19165241189</v>
+        <v>-3157.62017418006</v>
       </c>
       <c r="F19">
-        <v>-2508.01831172994</v>
+        <v>-2278.04255157053</v>
       </c>
       <c r="G19">
-        <v>-1198.90938099178</v>
+        <v>-1144.25647487951</v>
       </c>
       <c r="H19">
-        <v>-306.844575824217</v>
+        <v>-547.59101390456</v>
       </c>
       <c r="I19">
-        <v>566.07649234667</v>
+        <v>-295.708306929966</v>
       </c>
       <c r="J19">
-        <v>1659.07731706348</v>
+        <v>61.3893299501261</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1036,28 +1036,28 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>1375.91904726736</v>
+        <v>1302.21451074392</v>
       </c>
       <c r="D20">
-        <v>-1814.42993340758</v>
+        <v>-1781.97180287766</v>
       </c>
       <c r="E20">
-        <v>-889.232718551712</v>
+        <v>-882.67087143216</v>
       </c>
       <c r="F20">
-        <v>-83.1553209274464</v>
+        <v>-123.204849868265</v>
       </c>
       <c r="G20">
-        <v>1060.30138128774</v>
+        <v>980.873182690746</v>
       </c>
       <c r="H20">
-        <v>3020.66833283382</v>
+        <v>2883.8481282539</v>
       </c>
       <c r="I20">
-        <v>4782.61359282766</v>
+        <v>4540.33900059511</v>
       </c>
       <c r="J20">
-        <v>6553.25219300796</v>
+        <v>6163.46249916513</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1068,28 +1068,28 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>-6503.81992651326</v>
+        <v>-4669.8294316951</v>
       </c>
       <c r="D21">
-        <v>-34998.0253335186</v>
+        <v>-26290.2248802076</v>
       </c>
       <c r="E21">
-        <v>-23076.5817896361</v>
+        <v>-17930.3720755329</v>
       </c>
       <c r="F21">
-        <v>-12757.8953929646</v>
+        <v>-9643.70462719232</v>
       </c>
       <c r="G21">
-        <v>-3115.84858954148</v>
+        <v>-1980.26785089514</v>
       </c>
       <c r="H21">
-        <v>145.944666063553</v>
+        <v>772.397015638861</v>
       </c>
       <c r="I21">
-        <v>1225.07980063216</v>
+        <v>1926.97920980118</v>
       </c>
       <c r="J21">
-        <v>2032.31018982153</v>
+        <v>2940.80484960987</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1100,28 +1100,28 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>2.52782820071423</v>
+        <v>0.782238065311067</v>
       </c>
       <c r="D22">
-        <v>-8.17318930268546</v>
+        <v>-4.23867172372491</v>
       </c>
       <c r="E22">
-        <v>-5.23988688321531</v>
+        <v>-2.54972460106044</v>
       </c>
       <c r="F22">
-        <v>-2.20345466450035</v>
+        <v>-0.955300481818962</v>
       </c>
       <c r="G22">
-        <v>2.00260226689538</v>
+        <v>0.290689369650237</v>
       </c>
       <c r="H22">
-        <v>7.78828748397583</v>
+        <v>2.86454863982102</v>
       </c>
       <c r="I22">
-        <v>11.8414074264778</v>
+        <v>5.72304913627181</v>
       </c>
       <c r="J22">
-        <v>15.5772610812936</v>
+        <v>8.60755832725616</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1132,28 +1132,28 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>43.3037399769321</v>
+        <v>19.2612818433629</v>
       </c>
       <c r="D23">
-        <v>2.28779066940433</v>
+        <v>-1.08916159816986</v>
       </c>
       <c r="E23">
-        <v>4.73282588174677</v>
+        <v>-0.266828262775606</v>
       </c>
       <c r="F23">
-        <v>9.74387369980869</v>
+        <v>0.270879154405105</v>
       </c>
       <c r="G23">
-        <v>31.9746552453929</v>
+        <v>4.53705612473514</v>
       </c>
       <c r="H23">
-        <v>77.3622784711729</v>
+        <v>37.4418160246502</v>
       </c>
       <c r="I23">
-        <v>116.598102215561</v>
+        <v>73.7884595679861</v>
       </c>
       <c r="J23">
-        <v>155.750504226592</v>
+        <v>111.243316077417</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1164,28 +1164,28 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>0.325242523995919</v>
+        <v>0.0846558012901812</v>
       </c>
       <c r="D24">
-        <v>-0.135403416960313</v>
+        <v>-0.0588185950910697</v>
       </c>
       <c r="E24">
-        <v>-0.0620787719678308</v>
+        <v>-0.0279984479641589</v>
       </c>
       <c r="F24">
-        <v>0.00529524609927168</v>
+        <v>-0.00464413294347039</v>
       </c>
       <c r="G24">
-        <v>0.149093711807687</v>
+        <v>0.0265998740720839</v>
       </c>
       <c r="H24">
-        <v>0.540880292790025</v>
+        <v>0.156966362940403</v>
       </c>
       <c r="I24">
-        <v>0.941804224427651</v>
+        <v>0.327012071532492</v>
       </c>
       <c r="J24">
-        <v>1.35296656617092</v>
+        <v>0.552012448872521</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1196,28 +1196,28 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>-0.16041989091268</v>
+        <v>0.0358927236596486</v>
       </c>
       <c r="D25">
-        <v>-0.768302595717841</v>
+        <v>-0.259368170153907</v>
       </c>
       <c r="E25">
-        <v>-0.405451620478466</v>
+        <v>-0.123773836428277</v>
       </c>
       <c r="F25">
-        <v>-0.142101550251025</v>
+        <v>-0.0378690029394284</v>
       </c>
       <c r="G25">
-        <v>0.0584758606647796</v>
+        <v>0.0134886339887146</v>
       </c>
       <c r="H25">
-        <v>0.398796632523043</v>
+        <v>0.131989087508741</v>
       </c>
       <c r="I25">
-        <v>0.750791811577763</v>
+        <v>0.303538995559574</v>
       </c>
       <c r="J25">
-        <v>1.17240854754213</v>
+        <v>0.499875884178911</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1228,28 +1228,28 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>-1232.41759915485</v>
+        <v>-881.047298001264</v>
       </c>
       <c r="D26">
-        <v>-3984.99298751282</v>
+        <v>-3087.70699930365</v>
       </c>
       <c r="E26">
-        <v>-2988.13091956821</v>
+        <v>-2317.30890632531</v>
       </c>
       <c r="F26">
-        <v>-2058.66363577641</v>
+        <v>-1575.1025686732</v>
       </c>
       <c r="G26">
-        <v>-916.513778510631</v>
+        <v>-648.745759516726</v>
       </c>
       <c r="H26">
-        <v>-382.957438315388</v>
+        <v>-245.606898859921</v>
       </c>
       <c r="I26">
-        <v>-233.169193489235</v>
+        <v>-134.233989450031</v>
       </c>
       <c r="J26">
-        <v>-149.050176754963</v>
+        <v>-57.3133667657952</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1260,28 +1260,28 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>-1051.56583981188</v>
+        <v>-1106.56226014181</v>
       </c>
       <c r="D27">
-        <v>-4039.54813258833</v>
+        <v>-3586.94639111924</v>
       </c>
       <c r="E27">
-        <v>-3116.08864141303</v>
+        <v>-2748.79819658615</v>
       </c>
       <c r="F27">
-        <v>-2165.39009631503</v>
+        <v>-1930.84427312632</v>
       </c>
       <c r="G27">
-        <v>-943.858868290124</v>
+        <v>-908.95779757115</v>
       </c>
       <c r="H27">
-        <v>-147.874432211539</v>
+        <v>-417.462683606501</v>
       </c>
       <c r="I27">
-        <v>774.628161019961</v>
+        <v>-235.083048929344</v>
       </c>
       <c r="J27">
-        <v>1858.74538222118</v>
+        <v>69.7456392235413</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1292,28 +1292,28 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <v>1223.98241153487</v>
+        <v>1174.85192741125</v>
       </c>
       <c r="D28">
-        <v>-1646.71392884394</v>
+        <v>-1672.18159501665</v>
       </c>
       <c r="E28">
-        <v>-820.316679256282</v>
+        <v>-847.285690053881</v>
       </c>
       <c r="F28">
-        <v>-87.0757614377082</v>
+        <v>-137.232558043261</v>
       </c>
       <c r="G28">
-        <v>895.150895525299</v>
+        <v>850.08512535946</v>
       </c>
       <c r="H28">
-        <v>2722.48950180655</v>
+        <v>2643.05386335741</v>
       </c>
       <c r="I28">
-        <v>4402.9847100338</v>
+        <v>4227.80497160559</v>
       </c>
       <c r="J28">
-        <v>6136.60049681679</v>
+        <v>5844.32167083758</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1324,28 +1324,28 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>-5994.20541702937</v>
+        <v>-4717.73972013547</v>
       </c>
       <c r="D29">
-        <v>-32889.3218481956</v>
+        <v>-25405.9657861248</v>
       </c>
       <c r="E29">
-        <v>-21705.6018762992</v>
+        <v>-17042.5554518627</v>
       </c>
       <c r="F29">
-        <v>-11436.2846860455</v>
+        <v>-9176.10328445689</v>
       </c>
       <c r="G29">
-        <v>-2718.89065648662</v>
+        <v>-2046.23096466062</v>
       </c>
       <c r="H29">
-        <v>46.7113979136568</v>
+        <v>299.402326974794</v>
       </c>
       <c r="I29">
-        <v>951.626937078482</v>
+        <v>1248.61515141744</v>
       </c>
       <c r="J29">
-        <v>1712.52790124894</v>
+        <v>2133.20611106526</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1356,28 +1356,28 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>0.117948151890305</v>
+        <v>0.104180288833273</v>
       </c>
       <c r="D30">
-        <v>-0.749690501868997</v>
+        <v>-0.737244462668309</v>
       </c>
       <c r="E30">
-        <v>-0.585889954881741</v>
+        <v>-0.585469613662185</v>
       </c>
       <c r="F30">
-        <v>-0.35478817500329</v>
+        <v>-0.35937426614006</v>
       </c>
       <c r="G30">
-        <v>0.109541170419209</v>
+        <v>0.107231463890477</v>
       </c>
       <c r="H30">
-        <v>0.60162286847839</v>
+        <v>0.56944633653598</v>
       </c>
       <c r="I30">
-        <v>0.846989499258486</v>
+        <v>0.796738874519449</v>
       </c>
       <c r="J30">
-        <v>1.01999862194812</v>
+        <v>0.952942570311514</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1388,28 +1388,28 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>-0.0283320383225829</v>
+        <v>0.276816828148809</v>
       </c>
       <c r="D31">
-        <v>-1.62186125046172</v>
+        <v>-1.25664105088078</v>
       </c>
       <c r="E31">
-        <v>-1.4048814586153</v>
+        <v>-0.987105703398906</v>
       </c>
       <c r="F31">
-        <v>-1.01094236684251</v>
+        <v>-0.50850921184832</v>
       </c>
       <c r="G31">
-        <v>0.0165516891396716</v>
+        <v>0.339575956501321</v>
       </c>
       <c r="H31">
-        <v>0.884067947816565</v>
+        <v>0.993955628529864</v>
       </c>
       <c r="I31">
-        <v>1.20364316951694</v>
+        <v>1.26310430881659</v>
       </c>
       <c r="J31">
-        <v>1.41308489609531</v>
+        <v>1.45937415383236</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1420,28 +1420,28 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>0.124729810125603</v>
+        <v>0.089502799682923</v>
       </c>
       <c r="D32">
-        <v>-0.519180368718476</v>
+        <v>-0.546007847288668</v>
       </c>
       <c r="E32">
-        <v>-0.383934016358229</v>
+        <v>-0.405124984627365</v>
       </c>
       <c r="F32">
-        <v>-0.208367479234982</v>
+        <v>-0.230576292928489</v>
       </c>
       <c r="G32">
-        <v>0.132135135919057</v>
+        <v>0.0964247635481106</v>
       </c>
       <c r="H32">
-        <v>0.457724747512583</v>
+        <v>0.412087362806788</v>
       </c>
       <c r="I32">
-        <v>0.607753421459527</v>
+        <v>0.554272996259108</v>
       </c>
       <c r="J32">
-        <v>0.717926503135921</v>
+        <v>0.657312765760834</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1452,28 +1452,28 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>0.315977541021475</v>
+        <v>0.295286729788112</v>
       </c>
       <c r="D33">
-        <v>-0.480964653291434</v>
+        <v>-0.476764915694372</v>
       </c>
       <c r="E33">
-        <v>-0.318823424123334</v>
+        <v>-0.321777805705073</v>
       </c>
       <c r="F33">
-        <v>-0.110368276487599</v>
+        <v>-0.108677052053385</v>
       </c>
       <c r="G33">
-        <v>0.322754163764215</v>
+        <v>0.301490202587149</v>
       </c>
       <c r="H33">
-        <v>0.741911823720674</v>
+        <v>0.699384254239088</v>
       </c>
       <c r="I33">
-        <v>0.946509251813705</v>
+        <v>0.894793709730073</v>
       </c>
       <c r="J33">
-        <v>1.0838446638667</v>
+        <v>1.0224736387494</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1484,28 +1484,28 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>0.0544102549101597</v>
+        <v>0.05582532813152</v>
       </c>
       <c r="D34">
-        <v>-0.185552800445083</v>
+        <v>-0.190820196282636</v>
       </c>
       <c r="E34">
-        <v>-0.1380474885068</v>
+        <v>-0.146137383996298</v>
       </c>
       <c r="F34">
-        <v>-0.0738070593917732</v>
+        <v>-0.0788023867384319</v>
       </c>
       <c r="G34">
-        <v>0.0540068149773808</v>
+        <v>0.0564661631772674</v>
       </c>
       <c r="H34">
-        <v>0.183023728621102</v>
+        <v>0.190452009562105</v>
       </c>
       <c r="I34">
-        <v>0.25106841595825</v>
+        <v>0.255071001615455</v>
       </c>
       <c r="J34">
-        <v>0.294419373827237</v>
+        <v>0.297185680163863</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1516,28 +1516,28 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>0.0248615265851072</v>
+        <v>0.138087884786486</v>
       </c>
       <c r="D35">
-        <v>-0.420891489360444</v>
+        <v>-0.325876895451672</v>
       </c>
       <c r="E35">
-        <v>-0.363236987383383</v>
+        <v>-0.244996939615103</v>
       </c>
       <c r="F35">
-        <v>-0.254732633710665</v>
+        <v>-0.0964961352485916</v>
       </c>
       <c r="G35">
-        <v>0.0415920164700745</v>
+        <v>0.160035361129774</v>
       </c>
       <c r="H35">
-        <v>0.278429279801354</v>
+        <v>0.34994814314136</v>
       </c>
       <c r="I35">
-        <v>0.364502436529501</v>
+        <v>0.42683812120457</v>
       </c>
       <c r="J35">
-        <v>0.417981645673596</v>
+        <v>0.482539610583531</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1548,28 +1548,28 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>0.012261991675222</v>
+        <v>0.00583267558481034</v>
       </c>
       <c r="D36">
-        <v>-0.167527702503288</v>
+        <v>-0.181989168521717</v>
       </c>
       <c r="E36">
-        <v>-0.12917256143739</v>
+        <v>-0.140265029023819</v>
       </c>
       <c r="F36">
-        <v>-0.0813541705524718</v>
+        <v>-0.0902894433372894</v>
       </c>
       <c r="G36">
-        <v>0.0139388992507928</v>
+        <v>0.00783244035443662</v>
       </c>
       <c r="H36">
-        <v>0.105483148752606</v>
+        <v>0.101787122580013</v>
       </c>
       <c r="I36">
-        <v>0.148018647233191</v>
+        <v>0.145577465411474</v>
       </c>
       <c r="J36">
-        <v>0.178146248844339</v>
+        <v>0.174503131839485</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1580,28 +1580,28 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>0.0745254689023338</v>
+        <v>0.0721583732280575</v>
       </c>
       <c r="D37">
-        <v>-0.14763026585225</v>
+        <v>-0.154839920889652</v>
       </c>
       <c r="E37">
-        <v>-0.103940157782571</v>
+        <v>-0.109515370685813</v>
       </c>
       <c r="F37">
-        <v>-0.044755888023034</v>
+        <v>-0.0474772876556393</v>
       </c>
       <c r="G37">
-        <v>0.0758725182632624</v>
+        <v>0.0734122365087875</v>
       </c>
       <c r="H37">
-        <v>0.193442430088479</v>
+        <v>0.191642772481455</v>
       </c>
       <c r="I37">
-        <v>0.251803446351814</v>
+        <v>0.249220993517424</v>
       </c>
       <c r="J37">
-        <v>0.287285538119823</v>
+        <v>0.285330305418697</v>
       </c>
     </row>
   </sheetData>

--- a/small_data/assemb_stat_diff_summs.xlsx
+++ b/small_data/assemb_stat_diff_summs.xlsx
@@ -565,7 +565,7 @@
         <v>-0.73969906426028</v>
       </c>
       <c r="F5">
-        <v>0.288417946785214</v>
+        <v>0.288417946785215</v>
       </c>
       <c r="G5">
         <v>2.61588924680037</v>
@@ -629,7 +629,7 @@
         <v>-0.552418070867218</v>
       </c>
       <c r="F7">
-        <v>-0.0760862782095817</v>
+        <v>-0.0760862782095814</v>
       </c>
       <c r="G7">
         <v>1.00816977797528</v>
@@ -844,28 +844,28 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-0.207403072120936</v>
+        <v>-0.202169677264972</v>
       </c>
       <c r="D14">
-        <v>-1.52222222222222</v>
+        <v>-1.53333979745744</v>
       </c>
       <c r="E14">
-        <v>-1.30618686868687</v>
+        <v>-1.31111416361416</v>
       </c>
       <c r="F14">
-        <v>-0.963641219891221</v>
+        <v>-0.959609834609834</v>
       </c>
       <c r="G14">
-        <v>-0.206293706293706</v>
+        <v>-0.196153846153845</v>
       </c>
       <c r="H14">
-        <v>0.550847763347764</v>
+        <v>0.542759324009324</v>
       </c>
       <c r="I14">
-        <v>0.888888888888889</v>
+        <v>0.875864135864136</v>
       </c>
       <c r="J14">
-        <v>1.12123737373737</v>
+        <v>1.10130952380952</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -876,28 +876,28 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>-0.103689612916648</v>
+        <v>-0.102315159503667</v>
       </c>
       <c r="D15">
-        <v>-1.39048992673993</v>
+        <v>-1.37051816239316</v>
       </c>
       <c r="E15">
-        <v>-1.16111111111111</v>
+        <v>-1.16239704739705</v>
       </c>
       <c r="F15">
-        <v>-0.834473339160839</v>
+        <v>-0.82778540903541</v>
       </c>
       <c r="G15">
-        <v>-0.10124883286648</v>
+        <v>-0.105555555555555</v>
       </c>
       <c r="H15">
-        <v>0.628253690753691</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="I15">
-        <v>0.954545454545454</v>
+        <v>0.953825063825065</v>
       </c>
       <c r="J15">
-        <v>1.18016025641026</v>
+        <v>1.15820075757576</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -908,28 +908,28 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.181017464402428</v>
+        <v>0.1710151220228</v>
       </c>
       <c r="D16">
-        <v>-0.962328643578644</v>
+        <v>-0.967890997890998</v>
       </c>
       <c r="E16">
-        <v>-0.758876817626817</v>
+        <v>-0.783333333333332</v>
       </c>
       <c r="F16">
-        <v>-0.469955044955045</v>
+        <v>-0.486348781937016</v>
       </c>
       <c r="G16">
-        <v>0.177777777777778</v>
+        <v>0.164808802308802</v>
       </c>
       <c r="H16">
-        <v>0.833333333333334</v>
+        <v>0.832814754689755</v>
       </c>
       <c r="I16">
-        <v>1.14922619047619</v>
+        <v>1.13888888888889</v>
       </c>
       <c r="J16">
-        <v>1.35963383838384</v>
+        <v>1.35001623376623</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -940,28 +940,28 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>0.0695483944098128</v>
+        <v>0.0702955198561758</v>
       </c>
       <c r="D17">
-        <v>-0.978556096681097</v>
+        <v>-0.980565476190477</v>
       </c>
       <c r="E17">
-        <v>-0.811372377622379</v>
+        <v>-0.811130952380953</v>
       </c>
       <c r="F17">
-        <v>-0.544444444444444</v>
+        <v>-0.539693813131313</v>
       </c>
       <c r="G17">
-        <v>0.0704545454545458</v>
+        <v>0.0664724164724162</v>
       </c>
       <c r="H17">
-        <v>0.677835338680928</v>
+        <v>0.67885101010101</v>
       </c>
       <c r="I17">
-        <v>0.970811688311687</v>
+        <v>0.960606060606061</v>
       </c>
       <c r="J17">
-        <v>1.15277777777778</v>
+        <v>1.16592803030303</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1356,28 +1356,28 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>0.104180288833273</v>
+        <v>0.916373694619633</v>
       </c>
       <c r="D30">
-        <v>-0.737244462668309</v>
+        <v>-4.61612540562103</v>
       </c>
       <c r="E30">
-        <v>-0.585469613662185</v>
+        <v>-3.61663605534518</v>
       </c>
       <c r="F30">
-        <v>-0.35937426614006</v>
+        <v>-2.16742814567528</v>
       </c>
       <c r="G30">
-        <v>0.107231463890477</v>
+        <v>0.869515388356781</v>
       </c>
       <c r="H30">
-        <v>0.56944633653598</v>
+        <v>4.05955688360538</v>
       </c>
       <c r="I30">
-        <v>0.796738874519449</v>
+        <v>5.64672621156903</v>
       </c>
       <c r="J30">
-        <v>0.952942570311514</v>
+        <v>6.70512431931361</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1388,28 +1388,28 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>0.276816828148809</v>
+        <v>2.76372855194292</v>
       </c>
       <c r="D31">
-        <v>-1.25664105088078</v>
+        <v>-6.00426427891861</v>
       </c>
       <c r="E31">
-        <v>-0.987105703398906</v>
+        <v>-4.68653048452815</v>
       </c>
       <c r="F31">
-        <v>-0.50850921184832</v>
+        <v>-2.40291708132709</v>
       </c>
       <c r="G31">
-        <v>0.339575956501321</v>
+        <v>2.77372705668431</v>
       </c>
       <c r="H31">
-        <v>0.993955628529864</v>
+        <v>7.83768069689938</v>
       </c>
       <c r="I31">
-        <v>1.26310430881659</v>
+        <v>10.1176381428715</v>
       </c>
       <c r="J31">
-        <v>1.45937415383236</v>
+        <v>11.7093134173602</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1420,28 +1420,28 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>0.089502799682923</v>
+        <v>0.512595175122788</v>
       </c>
       <c r="D32">
-        <v>-0.546007847288668</v>
+        <v>-2.77250522997276</v>
       </c>
       <c r="E32">
-        <v>-0.405124984627365</v>
+        <v>-2.13301300659666</v>
       </c>
       <c r="F32">
-        <v>-0.230576292928489</v>
+        <v>-1.29457756036396</v>
       </c>
       <c r="G32">
-        <v>0.0964247635481106</v>
+        <v>0.530422500659178</v>
       </c>
       <c r="H32">
-        <v>0.412087362806788</v>
+        <v>2.2747174854799</v>
       </c>
       <c r="I32">
-        <v>0.554272996259108</v>
+        <v>3.09891377637612</v>
       </c>
       <c r="J32">
-        <v>0.657312765760834</v>
+        <v>3.67397320992243</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1452,28 +1452,28 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>0.295286729788112</v>
+        <v>1.83807679196131</v>
       </c>
       <c r="D33">
-        <v>-0.476764915694372</v>
+        <v>-2.55276896675439</v>
       </c>
       <c r="E33">
-        <v>-0.321777805705073</v>
+        <v>-1.74014482117724</v>
       </c>
       <c r="F33">
-        <v>-0.108677052053385</v>
+        <v>-0.604595954576067</v>
       </c>
       <c r="G33">
-        <v>0.301490202587149</v>
+        <v>1.8771693022494</v>
       </c>
       <c r="H33">
-        <v>0.699384254239088</v>
+        <v>4.24540493678714</v>
       </c>
       <c r="I33">
-        <v>0.894793709730073</v>
+        <v>5.26929721199073</v>
       </c>
       <c r="J33">
-        <v>1.0224736387494</v>
+        <v>5.93847367751231</v>
       </c>
     </row>
     <row r="34" spans="1:10">
